--- a/biology/Microbiologie/Euplotida/Euplotida.xlsx
+++ b/biology/Microbiologie/Euplotida/Euplotida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euplotida sont un ordre de Ciliés de la classe des Hypotrichea.
 </t>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1838 Ehrenberg considérait les « Euplotés  » comme des « Animaux polygastriques, à carapace, ayant un canal alimentaire à deux orifices séparés, dont aucun aux bouts du corps[1] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1838 Ehrenberg considérait les « Euplotés  » comme des « Animaux polygastriques, à carapace, ayant un canal alimentaire à deux orifices séparés, dont aucun aux bouts du corps ».
 Et il donne une clé de quatre genres qu'il connaissait à l'époque :
 Avec des cils sans style
 bouche sans dents
 avec tête séparée......................Discocephalus (actuels Discocephalidae)
 sans tête séparée......................Himantophorus (actuels Euplotidae)
 bouche avec des dents...................Chlamidodon (actuels Chlamydodontidae mais de la classe des Cyrtophoria)
-Avec des cils, des griffes et des styles...Euplotes (actuels Euplotidae)[1].
+Avec des cils, des griffes et des styles...Euplotes (actuels Euplotidae).
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1838 Ehrenberg déclarait que « La répartition géographique (des « Euplotés ») se situe dans toute l'Europe, y compris dans la mer, dont deux formes observées dans les eaux de la mer Rouge à Tor dans le Sinaï »[1]. Les observations récentes ont montré que cet ordre est largement réparti sur l'ensemble du globe terrestre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1838 Ehrenberg déclarait que « La répartition géographique (des « Euplotés ») se situe dans toute l'Europe, y compris dans la mer, dont deux formes observées dans les eaux de la mer Rouge à Tor dans le Sinaï ». Les observations récentes ont montré que cet ordre est largement réparti sur l'ensemble du globe terrestre.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 février 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 février 2023) :
 Aspidiscidae Ehrenberg, 1838
 Certesiidae Borror &amp; Hill, 1995
 Discocephalidae Jankowski, 1979
@@ -591,7 +609,7 @@
 Gastrocirrhidae Fauré-Fremiet, 1961
 Swedmarkiidae
 Uronychiidae Jankowski, 1979
-Selon The Taxonomicon  (8 février 2023)[3] :
+Selon The Taxonomicon  (8 février 2023) :
 Aspidiscidae Ehrenberg, 1838
 Certesiidae Borror &amp; Hill, 1995
 Discocephalidae Jankowski, 1979
@@ -599,7 +617,7 @@
 Euplotidae Ehrenberg, 1838
 Gastrocirrhidae Fauré-Fremiet, 1961
 Uronychiidae Jankowski, 1979
-Selon le World Register of Marine Species                               (8 février 2023)[4] :
+Selon le World Register of Marine Species                               (8 février 2023) :
 Aspidiscidae Ehrenberg, 1830
 Certesiidae Borror &amp; Hill, 1995
 Discocephalidae Jankowski, 1979
@@ -633,9 +651,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Euplotida Small &amp; Lynn, 1985[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Euplotida Small &amp; Lynn, 1985.
 </t>
         </is>
       </c>
